--- a/SUBJECT_LCSH.xlsx
+++ b/SUBJECT_LCSH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jase2188\Documents\GitHub\MetadataProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A9FE23-490C-4B34-9415-61B287B293DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0254868-CD69-4F12-92C8-9D50B66E2921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33300" yWindow="2445" windowWidth="22530" windowHeight="11790" xr2:uid="{D633BC26-5B67-423A-A4E3-3053B5AFA798}"/>
+    <workbookView xWindow="60" yWindow="210" windowWidth="28335" windowHeight="15390" xr2:uid="{D633BC26-5B67-423A-A4E3-3053B5AFA798}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="1133">
   <si>
     <t xml:space="preserve">ES..SUBJECT_LCSH </t>
   </si>
@@ -3402,6 +3402,48 @@
   </si>
   <si>
     <t>X-rays</t>
+  </si>
+  <si>
+    <t>Tribunales</t>
+  </si>
+  <si>
+    <t>Courts</t>
+  </si>
+  <si>
+    <t>Senderismo</t>
+  </si>
+  <si>
+    <t>Hiking</t>
+  </si>
+  <si>
+    <t>Carreras de caballos</t>
+  </si>
+  <si>
+    <t>Horse racing</t>
+  </si>
+  <si>
+    <t>Herencia y sucesión</t>
+  </si>
+  <si>
+    <t>Inheritance and succession</t>
+  </si>
+  <si>
+    <t>Niñeras</t>
+  </si>
+  <si>
+    <t>Nannies</t>
+  </si>
+  <si>
+    <t>Huérfanos</t>
+  </si>
+  <si>
+    <t>Orphans</t>
+  </si>
+  <si>
+    <t>Salud pública</t>
+  </si>
+  <si>
+    <t>Public health</t>
   </si>
 </sst>
 </file>
@@ -3843,10 +3885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2D5445-7CF6-4AB8-B97E-CB6842155CB3}">
-  <dimension ref="A1:B568"/>
+  <dimension ref="A1:B575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="A494" sqref="A494"/>
+    <sheetView tabSelected="1" topLeftCell="A552" workbookViewId="0">
+      <selection activeCell="G575" sqref="G575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8387,6 +8429,62 @@
         <v>1118</v>
       </c>
     </row>
+    <row r="569" spans="1:2" ht="15.75">
+      <c r="A569" s="11" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B569" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" ht="15.75">
+      <c r="A570" s="11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B570" s="11" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" ht="15.75">
+      <c r="A571" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B571" s="11" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" ht="15.75">
+      <c r="A572" s="11" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B572" s="11" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" ht="15.75">
+      <c r="A573" s="11" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B573" s="11" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" ht="15.75">
+      <c r="A574" s="11" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B574" s="11" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" ht="15.75">
+      <c r="A575" s="11" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B575" s="11" t="s">
+        <v>1132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
